--- a/output_data/charts/1600000US3954040.xlsx
+++ b/output_data/charts/1600000US3954040.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -199,40 +211,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.638764222797445</c:v>
+                  <c:v>1.610830741727034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.581020359104274</c:v>
+                  <c:v>1.571774626010096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.666637100636852</c:v>
+                  <c:v>1.709895158858278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.799216387132252</c:v>
+                  <c:v>1.804371734946384</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.782930308156699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.767847061037576</c:v>
+                  <c:v>1.725111348096105</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.817273465309436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.993839927388516</c:v>
+                  <c:v>1.9625931822578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.160831667218043</c:v>
+                  <c:v>2.229478014470031</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.296802572418881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.540348654604959</c:v>
+                  <c:v>2.559483748366919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.835637679286729</c:v>
+                  <c:v>2.83563767928673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,7 +267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +284,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.1192014472154024"/>
+          <c:max val="4"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +308,25 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +348,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -645,7 +680,7 @@
         <v>2012</v>
       </c>
       <c r="B2" s="1">
-        <v>1.638764222797445</v>
+        <v>1.610830741727034</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -653,7 +688,7 @@
         <v>2013</v>
       </c>
       <c r="B3" s="1">
-        <v>1.581020359104274</v>
+        <v>1.571774626010096</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -661,7 +696,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1">
-        <v>1.666637100636852</v>
+        <v>1.709895158858278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -669,7 +704,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1">
-        <v>1.799216387132252</v>
+        <v>1.804371734946384</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +720,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>1.767847061037576</v>
+        <v>1.725111348096105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -701,7 +736,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>1.993839927388516</v>
+        <v>1.9625931822578</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +744,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>2.160831667218043</v>
+        <v>2.229478014470031</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -725,7 +760,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1">
-        <v>2.540348654604959</v>
+        <v>2.559483748366919</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -733,7 +768,7 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1">
-        <v>2.835637679286729</v>
+        <v>2.83563767928673</v>
       </c>
     </row>
   </sheetData>
